--- a/LY354740_Rat/TB1Awake_VarReward/LY354740_Rat_awake_analysisAvg.xlsx
+++ b/LY354740_Rat/TB1Awake_VarReward/LY354740_Rat_awake_analysisAvg.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D35BA60-EA58-4106-9B72-C70B3AD83041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15375" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <pivotCaches>
     <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="118">
   <si>
     <t>subject</t>
   </si>
@@ -428,12 +428,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431"/>
+        <bgColor theme="4" tint="0.79998168889431"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -460,7 +460,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.39997558519242"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,34 +509,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4240,59 +4252,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="16" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="true"/>
+    <col min="2" max="2" width="9.140625" customWidth="true"/>
+    <col min="3" max="3" width="5.140625" customWidth="true"/>
+    <col min="4" max="4" width="8.140625" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="7.7109375" customWidth="true"/>
+    <col min="7" max="7" width="17" customWidth="true"/>
+    <col min="8" max="8" width="13.42578125" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.85546875" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="13.7109375" customWidth="true"/>
+    <col min="13" max="13" width="20.140625" customWidth="true"/>
+    <col min="14" max="16" width="20.140625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="20" t="s">
         <v>62</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -4338,20 +4351,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2">
       <c r="A2">
         <v>29</v>
       </c>
       <c r="B2">
         <v>20130227</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="b">
@@ -4425,20 +4438,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3">
       <c r="A3">
         <v>29</v>
       </c>
       <c r="B3">
         <v>20130227</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="b">
@@ -4512,20 +4525,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4">
       <c r="A4">
         <v>29</v>
       </c>
       <c r="B4">
         <v>20130227</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="b">
@@ -4599,20 +4612,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5">
       <c r="A5">
         <v>29</v>
       </c>
       <c r="B5">
         <v>20130301</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="b">
@@ -4628,7 +4641,7 @@
         <v>0.29567023750117993</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="K5">
         <v>6.6724913728276674</v>
@@ -4637,7 +4650,7 @@
         <v>0.29567023750117993</v>
       </c>
       <c r="M5">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="N5">
         <v>0.8</v>
@@ -4686,20 +4699,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6">
       <c r="A6">
         <v>29</v>
       </c>
       <c r="B6">
         <v>20130301</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="b">
@@ -4773,20 +4786,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7">
       <c r="A7">
         <v>29</v>
       </c>
       <c r="B7">
         <v>20130301</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="b">
@@ -4802,7 +4815,7 @@
         <v>0.31261912734941005</v>
       </c>
       <c r="J7">
-        <v>0.6</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="K7">
         <v>5.4179914543116494</v>
@@ -4811,7 +4824,7 @@
         <v>0.30430460590288644</v>
       </c>
       <c r="M7">
-        <v>0.6</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="N7">
         <v>0.6</v>
@@ -4860,20 +4873,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8">
       <c r="A8">
         <v>32</v>
       </c>
       <c r="B8">
         <v>20130227</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="b">
@@ -4947,20 +4960,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9">
       <c r="A9">
         <v>32</v>
       </c>
       <c r="B9">
         <v>20130227</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="b">
@@ -5034,20 +5047,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10">
       <c r="A10">
         <v>32</v>
       </c>
       <c r="B10">
         <v>20130227</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="b">
@@ -5063,7 +5076,7 @@
         <v>0.13782988997762197</v>
       </c>
       <c r="J10">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K10">
         <v>-0.550910758973852</v>
@@ -5072,7 +5085,7 @@
         <v>0.13113766002314484</v>
       </c>
       <c r="M10">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="N10">
         <v>0.8</v>
@@ -5121,20 +5134,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11">
       <c r="A11">
         <v>32</v>
       </c>
       <c r="B11">
         <v>20130301</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="b">
@@ -5150,7 +5163,7 @@
         <v>0.3027827302788284</v>
       </c>
       <c r="J11">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="K11">
         <v>2.0279428217570019</v>
@@ -5159,7 +5172,7 @@
         <v>0.3027827302788284</v>
       </c>
       <c r="M11">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="N11">
         <v>1.4</v>
@@ -5208,20 +5221,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12">
       <c r="A12">
         <v>32</v>
       </c>
       <c r="B12">
         <v>20130301</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="b">
@@ -5295,20 +5308,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13">
       <c r="A13">
         <v>32</v>
       </c>
       <c r="B13">
         <v>20130301</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="b">
@@ -5324,7 +5337,7 @@
         <v>0.14527190139579688</v>
       </c>
       <c r="J13">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="K13">
         <v>-4.6178234801605784</v>
@@ -5333,7 +5346,7 @@
         <v>0.17069520516903891</v>
       </c>
       <c r="M13">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="N13">
         <v>1.6</v>
@@ -5382,20 +5395,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14">
       <c r="A14">
         <v>34</v>
       </c>
       <c r="B14">
         <v>20130227</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="b">
@@ -5411,7 +5424,7 @@
         <v>0.32747685772782081</v>
       </c>
       <c r="J14">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="K14">
         <v>7.7731935148596358</v>
@@ -5420,7 +5433,7 @@
         <v>0.32747685772782081</v>
       </c>
       <c r="M14">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="N14">
         <v>0.7</v>
@@ -5469,20 +5482,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15">
       <c r="A15">
         <v>34</v>
       </c>
       <c r="B15">
         <v>20130227</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="b">
@@ -5498,7 +5511,7 @@
         <v>0.54412602934006726</v>
       </c>
       <c r="J15">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="K15">
         <v>12.994669965191722</v>
@@ -5507,7 +5520,7 @@
         <v>0.5071792537987807</v>
       </c>
       <c r="M15">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N15">
         <v>0.9</v>
@@ -5556,20 +5569,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16">
       <c r="A16">
         <v>34</v>
       </c>
       <c r="B16">
         <v>20130227</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="b">
@@ -5643,20 +5656,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17">
       <c r="A17">
         <v>34</v>
       </c>
       <c r="B17">
         <v>20130301</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="b">
@@ -5672,7 +5685,7 @@
         <v>0.24378882449596934</v>
       </c>
       <c r="J17">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="K17">
         <v>1.1474826197315671</v>
@@ -5681,7 +5694,7 @@
         <v>0.24378882449596934</v>
       </c>
       <c r="M17">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="N17">
         <v>0.8</v>
@@ -5730,20 +5743,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18">
       <c r="A18">
         <v>34</v>
       </c>
       <c r="B18">
         <v>20130301</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="b">
@@ -5817,20 +5830,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19">
       <c r="A19">
         <v>34</v>
       </c>
       <c r="B19">
         <v>20130301</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="b">
@@ -5846,7 +5859,7 @@
         <v>0.49355443673572064</v>
       </c>
       <c r="J19">
-        <v>3.8</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="K19">
         <v>4.4995003285103357</v>
@@ -5855,7 +5868,7 @@
         <v>0.49355443673572064</v>
       </c>
       <c r="M19">
-        <v>3.8</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="N19">
         <v>3.8</v>
@@ -5904,20 +5917,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20">
       <c r="A20">
         <v>52</v>
       </c>
       <c r="B20">
         <v>20130911</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="b">
@@ -5991,20 +6004,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21">
       <c r="A21">
         <v>52</v>
       </c>
       <c r="B21">
         <v>20130911</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="b">
@@ -6078,20 +6091,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22">
       <c r="A22">
         <v>52</v>
       </c>
       <c r="B22">
         <v>20130911</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="b">
@@ -6165,20 +6178,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23">
       <c r="A23">
         <v>52</v>
       </c>
       <c r="B23">
         <v>20130913</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="b">
@@ -6194,7 +6207,7 @@
         <v>0.28802106609904971</v>
       </c>
       <c r="J23">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="K23">
         <v>5.2125753222084699</v>
@@ -6252,20 +6265,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24">
       <c r="A24">
         <v>52</v>
       </c>
       <c r="B24">
         <v>20130913</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="b">
@@ -6339,20 +6352,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25">
       <c r="A25">
         <v>52</v>
       </c>
       <c r="B25">
         <v>20130913</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="b">
@@ -6426,20 +6439,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26">
       <c r="A26">
         <v>54</v>
       </c>
       <c r="B26">
         <v>20140617</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="b">
@@ -6455,7 +6468,7 @@
         <v>0.28946444593855891</v>
       </c>
       <c r="J26">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="K26">
         <v>5.8343299681588565</v>
@@ -6464,7 +6477,7 @@
         <v>0.28946444593855891</v>
       </c>
       <c r="M26">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="N26">
         <v>1.6</v>
@@ -6513,20 +6526,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27">
       <c r="A27">
         <v>54</v>
       </c>
       <c r="B27">
         <v>20140617</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="b">
@@ -6600,20 +6613,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28">
       <c r="A28">
         <v>54</v>
       </c>
       <c r="B28">
         <v>20140617</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="b">
@@ -6629,7 +6642,7 @@
         <v>0.98157642230128372</v>
       </c>
       <c r="J28">
-        <v>4.3</v>
+        <v>4.2999999999999998</v>
       </c>
       <c r="K28">
         <v>11.237217399397869</v>
@@ -6687,20 +6700,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29">
       <c r="A29">
         <v>54</v>
       </c>
       <c r="B29">
         <v>20140619</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="b">
@@ -6774,20 +6787,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30">
       <c r="A30">
         <v>54</v>
       </c>
       <c r="B30">
         <v>20140619</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="b">
@@ -6861,20 +6874,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31">
       <c r="A31">
         <v>54</v>
       </c>
       <c r="B31">
         <v>20140619</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="b">
@@ -6948,20 +6961,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32">
       <c r="A32">
         <v>55</v>
       </c>
       <c r="B32">
         <v>20140617</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="b">
@@ -6977,7 +6990,7 @@
         <v>0.28054411120288081</v>
       </c>
       <c r="J32">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K32">
         <v>-16.088623358296378</v>
@@ -6986,7 +6999,7 @@
         <v>0.28054411120288081</v>
       </c>
       <c r="M32">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N32">
         <v>0.9</v>
@@ -7035,20 +7048,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33">
       <c r="A33">
         <v>55</v>
       </c>
       <c r="B33">
         <v>20140617</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="b">
@@ -7070,7 +7083,7 @@
         <v>-17.637446715796159</v>
       </c>
       <c r="L33">
-        <v>4.4642103323788616E-2</v>
+        <v>0.044642103323788616</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -7122,20 +7135,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34">
       <c r="A34">
         <v>55</v>
       </c>
       <c r="B34">
         <v>20140617</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="b">
@@ -7148,16 +7161,16 @@
         <v>-16.12969971355394</v>
       </c>
       <c r="I34">
-        <v>7.2186419777394831E-2</v>
+        <v>0.072186419777394831</v>
       </c>
       <c r="J34">
-        <v>0.6</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="K34">
         <v>-26.180626973728703</v>
       </c>
       <c r="L34">
-        <v>9.6695503629888213E-2</v>
+        <v>0.096695503629888213</v>
       </c>
       <c r="M34">
         <v>0.5</v>
@@ -7209,20 +7222,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35">
       <c r="A35">
         <v>55</v>
       </c>
       <c r="B35">
         <v>20140619</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="b">
@@ -7238,7 +7251,7 @@
         <v>0.34486248844371514</v>
       </c>
       <c r="J35">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K35">
         <v>7.7429215760657826</v>
@@ -7247,7 +7260,7 @@
         <v>0.34486248844371514</v>
       </c>
       <c r="M35">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N35">
         <v>0.9</v>
@@ -7299,20 +7312,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36">
       <c r="A36">
         <v>55</v>
       </c>
       <c r="B36">
         <v>20140619</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F36" t="b">
@@ -7386,20 +7399,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37">
       <c r="A37">
         <v>55</v>
       </c>
       <c r="B37">
         <v>20140619</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F37" t="b">
@@ -7476,20 +7489,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38">
       <c r="A38">
         <v>56</v>
       </c>
       <c r="B38">
         <v>20140617</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="b">
@@ -7563,20 +7576,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39">
       <c r="A39">
         <v>56</v>
       </c>
       <c r="B39">
         <v>20140617</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F39" t="b">
@@ -7589,19 +7602,19 @@
         <v>-8.700696016514982</v>
       </c>
       <c r="I39">
-        <v>9.4413231129372957E-2</v>
+        <v>0.094413231129372957</v>
       </c>
       <c r="J39">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="K39">
         <v>-8.7127196419497732</v>
       </c>
       <c r="L39">
-        <v>9.4413231129372957E-2</v>
+        <v>0.094413231129372957</v>
       </c>
       <c r="M39">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="N39">
         <v>0.7</v>
@@ -7650,20 +7663,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40">
       <c r="A40">
         <v>56</v>
       </c>
       <c r="B40">
         <v>20140617</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="b">
@@ -7737,20 +7750,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41">
       <c r="A41">
         <v>56</v>
       </c>
       <c r="B41">
         <v>20140619</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="b">
@@ -7766,7 +7779,7 @@
         <v>0.3031027518705553</v>
       </c>
       <c r="J41">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="K41">
         <v>6.6547207207864973</v>
@@ -7775,7 +7788,7 @@
         <v>0.3031027518705553</v>
       </c>
       <c r="M41">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="N41">
         <v>1.4</v>
@@ -7824,20 +7837,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42">
       <c r="A42">
         <v>56</v>
       </c>
       <c r="B42">
         <v>20140619</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="b">
@@ -7914,20 +7927,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43">
       <c r="A43">
         <v>56</v>
       </c>
       <c r="B43">
         <v>20140619</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F43" t="b">
@@ -8001,20 +8014,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44">
       <c r="A44">
         <v>57</v>
       </c>
       <c r="B44">
         <v>20140618</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="b">
@@ -8030,7 +8043,7 @@
         <v>0.29821959295509515</v>
       </c>
       <c r="J44">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="K44">
         <v>5.6937474852065346</v>
@@ -8039,7 +8052,7 @@
         <v>0.31515175925118766</v>
       </c>
       <c r="M44">
-        <v>1.9</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="N44">
         <v>1.9</v>
@@ -8091,20 +8104,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45">
       <c r="A45">
         <v>57</v>
       </c>
       <c r="B45">
         <v>20140618</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F45" t="b">
@@ -8178,20 +8191,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46">
       <c r="A46">
         <v>57</v>
       </c>
       <c r="B46">
         <v>20140618</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F46" t="b">
@@ -8207,7 +8220,7 @@
         <v>0.31771761455061048</v>
       </c>
       <c r="J46">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="K46">
         <v>6.3152208483573835</v>
@@ -8216,7 +8229,7 @@
         <v>0.23639059418229957</v>
       </c>
       <c r="M46">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="N46">
         <v>1.6</v>
@@ -8265,20 +8278,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47">
       <c r="A47">
         <v>57</v>
       </c>
       <c r="B47">
         <v>20140620</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="b">
@@ -8294,7 +8307,7 @@
         <v>0.52132847198184196</v>
       </c>
       <c r="J47">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="K47">
         <v>8.4326283776857576</v>
@@ -8303,7 +8316,7 @@
         <v>0.49790742338223509</v>
       </c>
       <c r="M47">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="N47">
         <v>1.6</v>
@@ -8352,20 +8365,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48">
       <c r="A48">
         <v>57</v>
       </c>
       <c r="B48">
         <v>20140620</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F48" t="b">
@@ -8381,7 +8394,7 @@
         <v>0.66133414169825611</v>
       </c>
       <c r="J48">
-        <v>2.6</v>
+        <v>2.6000000000000001</v>
       </c>
       <c r="K48">
         <v>23.949121989216081</v>
@@ -8390,7 +8403,7 @@
         <v>0.66133414169825611</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>2.6000000000000001</v>
       </c>
       <c r="N48">
         <v>2.6</v>
@@ -8439,20 +8452,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49">
       <c r="A49">
         <v>57</v>
       </c>
       <c r="B49">
         <v>20140620</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="b">
@@ -8526,20 +8539,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50">
       <c r="A50">
         <v>58</v>
       </c>
       <c r="B50">
         <v>20140618</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F50" t="b">
@@ -8586,20 +8599,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51">
       <c r="A51">
         <v>58</v>
       </c>
       <c r="B51">
         <v>20140618</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F51" t="b">
@@ -8646,20 +8659,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52">
       <c r="A52">
         <v>58</v>
       </c>
       <c r="B52">
         <v>20140618</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F52" t="b">
@@ -8706,20 +8719,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53">
       <c r="A53">
         <v>58</v>
       </c>
       <c r="B53">
         <v>20140620</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F53" t="b">
@@ -8735,7 +8748,7 @@
         <v>0.44257107345669694</v>
       </c>
       <c r="J53">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="K53">
         <v>2.6240034274938187</v>
@@ -8744,7 +8757,7 @@
         <v>0.44257107345669694</v>
       </c>
       <c r="M53">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="N53">
         <v>0.8</v>
@@ -8766,20 +8779,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54">
       <c r="A54">
         <v>58</v>
       </c>
       <c r="B54">
         <v>20140620</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F54" t="b">
@@ -8795,7 +8808,7 @@
         <v>0.52470907190282257</v>
       </c>
       <c r="J54">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K54">
         <v>9.1350049386945926</v>
@@ -8804,7 +8817,7 @@
         <v>0.51733440507276318</v>
       </c>
       <c r="M54">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N54">
         <v>0.9</v>
@@ -8826,20 +8839,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55">
       <c r="A55">
         <v>58</v>
       </c>
       <c r="B55">
         <v>20140620</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F55" t="b">
@@ -8855,7 +8868,7 @@
         <v>0.35438029797076553</v>
       </c>
       <c r="J55">
-        <v>0.6</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="K55">
         <v>4.0675850555679958</v>
@@ -8864,7 +8877,7 @@
         <v>0.36630567397575736</v>
       </c>
       <c r="M55">
-        <v>0.6</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="N55">
         <v>0.6</v>
@@ -8886,20 +8899,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56">
       <c r="A56">
         <v>69</v>
       </c>
       <c r="B56">
         <v>20141209</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F56" t="b">
@@ -8946,20 +8959,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57">
       <c r="A57">
         <v>69</v>
       </c>
       <c r="B57">
         <v>20141209</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F57" t="b">
@@ -8975,7 +8988,7 @@
         <v>1.2694020150706746</v>
       </c>
       <c r="J57">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K57">
         <v>39.412530256555762</v>
@@ -8984,7 +8997,7 @@
         <v>1.2694020150706746</v>
       </c>
       <c r="M57">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N57">
         <v>0.9</v>
@@ -9006,20 +9019,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58">
       <c r="A58">
         <v>69</v>
       </c>
       <c r="B58">
         <v>20141209</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F58" t="b">
@@ -9035,7 +9048,7 @@
         <v>1.5146490948611784</v>
       </c>
       <c r="J58">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="K58">
         <v>55.25424547059616</v>
@@ -9066,20 +9079,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59">
       <c r="A59">
         <v>69</v>
       </c>
       <c r="B59">
         <v>20141211</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F59" t="b">
@@ -9095,7 +9108,7 @@
         <v>0.65256712414376039</v>
       </c>
       <c r="J59">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K59">
         <v>8.7578762118105651</v>
@@ -9104,7 +9117,7 @@
         <v>0.65256712414376039</v>
       </c>
       <c r="M59">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N59">
         <v>0.9</v>
@@ -9126,20 +9139,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60">
       <c r="A60">
         <v>69</v>
       </c>
       <c r="B60">
         <v>20141211</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F60" t="b">
@@ -9164,7 +9177,7 @@
         <v>0.64006614932134087</v>
       </c>
       <c r="M60">
-        <v>3.9</v>
+        <v>3.8999999999999999</v>
       </c>
       <c r="N60">
         <v>3.9</v>
@@ -9186,20 +9199,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61">
       <c r="A61">
         <v>69</v>
       </c>
       <c r="B61">
         <v>20141211</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F61" t="b">
@@ -9246,20 +9259,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62">
       <c r="A62">
         <v>71</v>
       </c>
       <c r="B62">
         <v>20141212</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F62" t="b">
@@ -9284,7 +9297,7 @@
         <v>0.59817205591419254</v>
       </c>
       <c r="M62">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="N62">
         <v>1.6</v>
@@ -9306,20 +9319,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63">
       <c r="A63">
         <v>71</v>
       </c>
       <c r="B63">
         <v>20141212</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F63" t="b">
@@ -9366,20 +9379,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64">
       <c r="A64">
         <v>71</v>
       </c>
       <c r="B64">
         <v>20141212</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F64" t="b">
@@ -9426,20 +9439,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65">
       <c r="A65">
         <v>71</v>
       </c>
       <c r="B65">
         <v>20141216</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F65" t="b">
@@ -9455,7 +9468,7 @@
         <v>0.5068364126811391</v>
       </c>
       <c r="J65">
-        <v>3.4</v>
+        <v>3.3999999999999999</v>
       </c>
       <c r="K65">
         <v>17.622408003561251</v>
@@ -9464,7 +9477,7 @@
         <v>0.49707525029235394</v>
       </c>
       <c r="M65">
-        <v>3.4</v>
+        <v>3.3999999999999999</v>
       </c>
       <c r="N65">
         <v>3.4</v>
@@ -9486,20 +9499,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66">
       <c r="A66">
         <v>71</v>
       </c>
       <c r="B66">
         <v>20141216</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F66" t="b">
@@ -9515,7 +9528,7 @@
         <v>0.67794760020642397</v>
       </c>
       <c r="J66">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="K66">
         <v>15.784828367374525</v>
@@ -9546,20 +9559,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67">
       <c r="A67">
         <v>71</v>
       </c>
       <c r="B67">
         <v>20141216</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F67" t="b">
@@ -9606,20 +9619,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68">
       <c r="A68">
         <v>72</v>
       </c>
       <c r="B68">
         <v>20141210</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F68" t="b">
@@ -9666,20 +9679,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69">
       <c r="A69">
         <v>72</v>
       </c>
       <c r="B69">
         <v>20141210</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F69" t="b">
@@ -9726,20 +9739,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70">
       <c r="A70">
         <v>72</v>
       </c>
       <c r="B70">
         <v>20141210</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F70" t="b">
@@ -9786,20 +9799,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71">
       <c r="A71">
         <v>72</v>
       </c>
       <c r="B71">
         <v>20141212</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F71" t="b">
@@ -9815,7 +9828,7 @@
         <v>0.25525309023560505</v>
       </c>
       <c r="J71">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="K71">
         <v>5.0068078240058664</v>
@@ -9824,7 +9837,7 @@
         <v>0.25525309023560505</v>
       </c>
       <c r="M71">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="N71">
         <v>1.4</v>
@@ -9846,20 +9859,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72">
       <c r="A72">
         <v>72</v>
       </c>
       <c r="B72">
         <v>20141212</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="b">
@@ -9875,7 +9888,7 @@
         <v>0.34562786881299323</v>
       </c>
       <c r="J72">
-        <v>2.7</v>
+        <v>2.7000000000000002</v>
       </c>
       <c r="K72">
         <v>6.9179488480156239</v>
@@ -9884,7 +9897,7 @@
         <v>0.34562786881299323</v>
       </c>
       <c r="M72">
-        <v>2.7</v>
+        <v>2.7000000000000002</v>
       </c>
       <c r="N72">
         <v>2.7</v>
@@ -9906,20 +9919,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>20141212</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="b">
@@ -9966,20 +9979,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74">
       <c r="A74">
         <v>29</v>
       </c>
       <c r="B74">
         <v>20130227</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F74" t="b">
@@ -9995,7 +10008,7 @@
         <v>0.30084135647517968</v>
       </c>
       <c r="J74">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="K74">
         <v>9.9962441865144118</v>
@@ -10004,7 +10017,7 @@
         <v>0.3158909834538311</v>
       </c>
       <c r="M74">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="N74">
         <v>2.1</v>
@@ -10026,20 +10039,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75">
       <c r="A75">
         <v>29</v>
       </c>
       <c r="B75">
         <v>20130227</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F75" t="b">
@@ -10064,7 +10077,7 @@
         <v>0.30038122270415069</v>
       </c>
       <c r="M75">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N75">
         <v>0.9</v>
@@ -10086,20 +10099,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76">
       <c r="A76">
         <v>29</v>
       </c>
       <c r="B76">
         <v>20130227</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F76" t="b">
@@ -10146,20 +10159,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77">
       <c r="A77">
         <v>29</v>
       </c>
       <c r="B77">
         <v>20130301</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F77" t="b">
@@ -10206,20 +10219,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78">
       <c r="A78">
         <v>29</v>
       </c>
       <c r="B78">
         <v>20130301</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F78" t="b">
@@ -10235,7 +10248,7 @@
         <v>0.43643659304037674</v>
       </c>
       <c r="J78">
-        <v>1.9</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="K78">
         <v>12.870438755381549</v>
@@ -10244,7 +10257,7 @@
         <v>0.43643659304037674</v>
       </c>
       <c r="M78">
-        <v>1.9</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="N78">
         <v>1.9</v>
@@ -10266,20 +10279,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79">
       <c r="A79">
         <v>29</v>
       </c>
       <c r="B79">
         <v>20130301</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F79" t="b">
@@ -10295,7 +10308,7 @@
         <v>0.47321920495697328</v>
       </c>
       <c r="J79">
-        <v>3.8</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="K79">
         <v>18.488398746946615</v>
@@ -10304,7 +10317,7 @@
         <v>0.47321920495697328</v>
       </c>
       <c r="M79">
-        <v>3.8</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="N79">
         <v>3.8</v>
@@ -10326,20 +10339,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80">
       <c r="A80">
         <v>32</v>
       </c>
       <c r="B80">
         <v>20130227</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F80" t="b">
@@ -10386,20 +10399,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81">
       <c r="A81">
         <v>32</v>
       </c>
       <c r="B81">
         <v>20130227</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F81" t="b">
@@ -10424,7 +10437,7 @@
         <v>0.58788581902721249</v>
       </c>
       <c r="M81">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="N81">
         <v>1.6</v>
@@ -10446,20 +10459,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82">
       <c r="A82">
         <v>32</v>
       </c>
       <c r="B82">
         <v>20130227</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F82" t="b">
@@ -10475,7 +10488,7 @@
         <v>1.3120759561817423</v>
       </c>
       <c r="J82">
-        <v>4.3</v>
+        <v>4.2999999999999998</v>
       </c>
       <c r="K82">
         <v>29.233031228224217</v>
@@ -10506,20 +10519,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83">
       <c r="A83">
         <v>32</v>
       </c>
       <c r="B83">
         <v>20130301</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F83" t="b">
@@ -10535,7 +10548,7 @@
         <v>0.43968813354610736</v>
       </c>
       <c r="J83">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="K83">
         <v>7.1192005197013133</v>
@@ -10544,7 +10557,7 @@
         <v>0.43968813354610736</v>
       </c>
       <c r="M83">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="N83">
         <v>1.4</v>
@@ -10566,20 +10579,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84">
       <c r="A84">
         <v>32</v>
       </c>
       <c r="B84">
         <v>20130301</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F84" t="b">
@@ -10626,20 +10639,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85">
       <c r="A85">
         <v>32</v>
       </c>
       <c r="B85">
         <v>20130301</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F85" t="b">
@@ -10686,20 +10699,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86">
       <c r="A86">
         <v>34</v>
       </c>
       <c r="B86">
         <v>20130227</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F86" t="b">
@@ -10715,7 +10728,7 @@
         <v>0.5882214930600812</v>
       </c>
       <c r="J86">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="K86">
         <v>12.960466020364812</v>
@@ -10724,7 +10737,7 @@
         <v>0.5882214930600812</v>
       </c>
       <c r="M86">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="N86">
         <v>0.7</v>
@@ -10746,20 +10759,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87">
       <c r="A87">
         <v>34</v>
       </c>
       <c r="B87">
         <v>20130227</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F87" t="b">
@@ -10806,20 +10819,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88">
       <c r="A88">
         <v>34</v>
       </c>
       <c r="B88">
         <v>20130227</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F88" t="b">
@@ -10844,7 +10857,7 @@
         <v>0.79537086311290572</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>3.2000000000000002</v>
       </c>
       <c r="N88">
         <v>3.2</v>
@@ -10866,20 +10879,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89">
       <c r="A89">
         <v>34</v>
       </c>
       <c r="B89">
         <v>20130301</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F89" t="b">
@@ -10895,7 +10908,7 @@
         <v>0.49176748816275512</v>
       </c>
       <c r="J89">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="K89">
         <v>13.075768233698229</v>
@@ -10904,7 +10917,7 @@
         <v>0.49176748816275512</v>
       </c>
       <c r="M89">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="N89">
         <v>0.7</v>
@@ -10926,20 +10939,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90">
       <c r="A90">
         <v>34</v>
       </c>
       <c r="B90">
         <v>20130301</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F90" t="b">
@@ -10986,20 +10999,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91">
       <c r="A91">
         <v>34</v>
       </c>
       <c r="B91">
         <v>20130301</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F91" t="b">
@@ -11015,7 +11028,7 @@
         <v>0.79059043593565681</v>
       </c>
       <c r="J91">
-        <v>3.8</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="K91">
         <v>23.143336205559518</v>
@@ -11024,7 +11037,7 @@
         <v>0.79059043593565681</v>
       </c>
       <c r="M91">
-        <v>3.8</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="N91">
         <v>3.8</v>
@@ -11046,20 +11059,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92">
       <c r="A92">
         <v>52</v>
       </c>
       <c r="B92">
         <v>20130911</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="20" t="s">
         <v>37</v>
       </c>
       <c r="F92" t="b">
@@ -11072,19 +11085,19 @@
         <v>-6.99877956718794</v>
       </c>
       <c r="I92">
-        <v>9.4141562130062098E-2</v>
+        <v>0.094141562130062098</v>
       </c>
       <c r="J92">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K92">
         <v>-7.0035234249318963</v>
       </c>
       <c r="L92">
-        <v>9.4141562130062098E-2</v>
+        <v>0.094141562130062098</v>
       </c>
       <c r="M92">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N92">
         <v>0.9</v>
@@ -11106,20 +11119,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93">
       <c r="A93">
         <v>52</v>
       </c>
       <c r="B93">
         <v>20130911</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="20" t="s">
         <v>37</v>
       </c>
       <c r="F93" t="b">
@@ -11132,19 +11145,19 @@
         <v>-11.788735274841418</v>
       </c>
       <c r="I93">
-        <v>4.1761680242513213E-2</v>
+        <v>0.041761680242513213</v>
       </c>
       <c r="J93">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="K93">
         <v>-11.730968273706109</v>
       </c>
       <c r="L93">
-        <v>4.1761680242513213E-2</v>
+        <v>0.041761680242513213</v>
       </c>
       <c r="M93">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="N93">
         <v>0.8</v>
@@ -11166,20 +11179,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94">
       <c r="A94">
         <v>52</v>
       </c>
       <c r="B94">
         <v>20130911</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="20" t="s">
         <v>37</v>
       </c>
       <c r="F94" t="b">
@@ -11195,7 +11208,7 @@
         <v>0.28970977240964058</v>
       </c>
       <c r="J94">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K94">
         <v>11.049201513648416</v>
@@ -11204,7 +11217,7 @@
         <v>0.48968023460634513</v>
       </c>
       <c r="M94">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N94">
         <v>0.9</v>
@@ -11226,20 +11239,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95">
       <c r="A95">
         <v>52</v>
       </c>
       <c r="B95">
         <v>20130913</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="b">
@@ -11255,7 +11268,7 @@
         <v>0.17045002115485808</v>
       </c>
       <c r="J95">
-        <v>1.9</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="K95">
         <v>3.5339323873902013</v>
@@ -11264,7 +11277,7 @@
         <v>0.15888337520842594</v>
       </c>
       <c r="M95">
-        <v>1.9</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="N95">
         <v>1.9</v>
@@ -11286,20 +11299,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96">
       <c r="A96">
         <v>52</v>
       </c>
       <c r="B96">
         <v>20130913</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="b">
@@ -11324,7 +11337,7 @@
         <v>0.10960574751928889</v>
       </c>
       <c r="M96">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="N96">
         <v>0.7</v>
@@ -11346,20 +11359,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97">
       <c r="A97">
         <v>52</v>
       </c>
       <c r="B97">
         <v>20130913</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="b">
@@ -11375,7 +11388,7 @@
         <v>0.17615877841669722</v>
       </c>
       <c r="J97">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="K97">
         <v>5.3047350607789614</v>
@@ -11384,7 +11397,7 @@
         <v>0.17615877841669722</v>
       </c>
       <c r="M97">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="N97">
         <v>1.6</v>
@@ -11406,20 +11419,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98">
       <c r="A98">
         <v>54</v>
       </c>
       <c r="B98">
         <v>20140617</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F98" t="b">
@@ -11435,7 +11448,7 @@
         <v>0.50840480880911487</v>
       </c>
       <c r="J98">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="K98">
         <v>2.657470128276012</v>
@@ -11444,7 +11457,7 @@
         <v>0.50840480880911487</v>
       </c>
       <c r="M98">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="N98">
         <v>0.8</v>
@@ -11466,20 +11479,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99">
       <c r="A99">
         <v>54</v>
       </c>
       <c r="B99">
         <v>20140617</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F99" t="b">
@@ -11495,7 +11508,7 @@
         <v>0.5373616494848521</v>
       </c>
       <c r="J99">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="K99">
         <v>1.9884808248846424</v>
@@ -11504,7 +11517,7 @@
         <v>0.52396700830305842</v>
       </c>
       <c r="M99">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="N99">
         <v>0.7</v>
@@ -11526,20 +11539,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100">
       <c r="A100">
         <v>54</v>
       </c>
       <c r="B100">
         <v>20140617</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F100" t="b">
@@ -11555,7 +11568,7 @@
         <v>0.63978961111048882</v>
       </c>
       <c r="J100">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="K100">
         <v>13.73771245438223</v>
@@ -11564,7 +11577,7 @@
         <v>0.59908392446294911</v>
       </c>
       <c r="M100">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="N100">
         <v>0.8</v>
@@ -11586,20 +11599,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101">
       <c r="A101">
         <v>54</v>
       </c>
       <c r="B101">
         <v>20140619</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F101" t="b">
@@ -11646,20 +11659,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102">
       <c r="A102">
         <v>54</v>
       </c>
       <c r="B102">
         <v>20140619</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F102" t="b">
@@ -11675,7 +11688,7 @@
         <v>0.80470706093558109</v>
       </c>
       <c r="J102">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K102">
         <v>15.365327014919805</v>
@@ -11684,7 +11697,7 @@
         <v>0.74274506863581702</v>
       </c>
       <c r="M102">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N102">
         <v>0.9</v>
@@ -11706,20 +11719,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103">
       <c r="A103">
         <v>54</v>
       </c>
       <c r="B103">
         <v>20140619</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F103" t="b">
@@ -11766,20 +11779,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104">
       <c r="A104">
         <v>55</v>
       </c>
       <c r="B104">
         <v>20140617</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F104" t="b">
@@ -11795,7 +11808,7 @@
         <v>0.6259337135364218</v>
       </c>
       <c r="J104">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="K104">
         <v>5.2684700385660044</v>
@@ -11804,7 +11817,7 @@
         <v>0.54320196710728585</v>
       </c>
       <c r="M104">
-        <v>0.8</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="N104">
         <v>0.8</v>
@@ -11826,20 +11839,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105">
       <c r="A105">
         <v>55</v>
       </c>
       <c r="B105">
         <v>20140617</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F105" t="b">
@@ -11855,7 +11868,7 @@
         <v>0.40506160278332132</v>
       </c>
       <c r="J105">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="K105">
         <v>10.237291868917749</v>
@@ -11864,7 +11877,7 @@
         <v>0.38215866559866485</v>
       </c>
       <c r="M105">
-        <v>2.7</v>
+        <v>2.7000000000000002</v>
       </c>
       <c r="N105">
         <v>2.7</v>
@@ -11886,20 +11899,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106">
       <c r="A106">
         <v>55</v>
       </c>
       <c r="B106">
         <v>20140617</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F106" t="b">
@@ -11915,7 +11928,7 @@
         <v>1.1775565777820065</v>
       </c>
       <c r="J106">
-        <v>3.8</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="K106">
         <v>30.972960935606537</v>
@@ -11924,7 +11937,7 @@
         <v>1.1775565777820065</v>
       </c>
       <c r="M106">
-        <v>3.8</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="N106">
         <v>3.8</v>
@@ -11946,20 +11959,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107">
       <c r="A107">
         <v>55</v>
       </c>
       <c r="B107">
         <v>20140619</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="20" t="s">
         <v>42</v>
       </c>
       <c r="F107" t="b">
@@ -11975,7 +11988,7 @@
         <v>0.64922838735280086</v>
       </c>
       <c r="J107">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K107">
         <v>10.337812799823345</v>
@@ -11984,7 +11997,7 @@
         <v>0.61359448888362345</v>
       </c>
       <c r="M107">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N107">
         <v>0.9</v>
@@ -12006,20 +12019,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108">
       <c r="A108">
         <v>55</v>
       </c>
       <c r="B108">
         <v>20140619</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="20" t="s">
         <v>42</v>
       </c>
       <c r="F108" t="b">
@@ -12044,7 +12057,7 @@
         <v>0.73921359513579254</v>
       </c>
       <c r="M108">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="N108">
         <v>1.6</v>
@@ -12066,20 +12079,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109">
       <c r="A109">
         <v>55</v>
       </c>
       <c r="B109">
         <v>20140619</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="20" t="s">
         <v>42</v>
       </c>
       <c r="F109" t="b">
@@ -12104,7 +12117,7 @@
         <v>1.1213220003594824</v>
       </c>
       <c r="M109">
-        <v>2.8</v>
+        <v>2.7999999999999998</v>
       </c>
       <c r="N109">
         <v>2.8</v>
@@ -12126,20 +12139,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110">
       <c r="A110">
         <v>56</v>
       </c>
       <c r="B110">
         <v>20140617</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="20" t="s">
         <v>43</v>
       </c>
       <c r="F110" t="b">
@@ -12155,7 +12168,7 @@
         <v>0.14588399464078314</v>
       </c>
       <c r="J110">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="K110">
         <v>3.4079417208487297</v>
@@ -12164,7 +12177,7 @@
         <v>0.14588399464078314</v>
       </c>
       <c r="M110">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="N110">
         <v>2.1</v>
@@ -12186,20 +12199,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111">
       <c r="A111">
         <v>56</v>
       </c>
       <c r="B111">
         <v>20140617</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="20" t="s">
         <v>43</v>
       </c>
       <c r="F111" t="b">
@@ -12246,20 +12259,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112">
       <c r="A112">
         <v>56</v>
       </c>
       <c r="B112">
         <v>20140617</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="20" t="s">
         <v>43</v>
       </c>
       <c r="F112" t="b">
@@ -12272,7 +12285,7 @@
         <v>-6.2429083820118816</v>
       </c>
       <c r="I112">
-        <v>5.6219302982570635E-2</v>
+        <v>0.056219302982570635</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -12281,7 +12294,7 @@
         <v>-6.3124120449636614</v>
       </c>
       <c r="L112">
-        <v>4.7622757548677133E-2</v>
+        <v>0.047622757548677133</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -12306,20 +12319,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113">
       <c r="A113">
         <v>56</v>
       </c>
       <c r="B113">
         <v>20140619</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F113" t="b">
@@ -12335,7 +12348,7 @@
         <v>0.24826299264920965</v>
       </c>
       <c r="J113">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="K113">
         <v>4.7159271813492554</v>
@@ -12344,7 +12357,7 @@
         <v>0.24826299264920965</v>
       </c>
       <c r="M113">
-        <v>1.4</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="N113">
         <v>1.4</v>
@@ -12366,20 +12379,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114">
       <c r="A114">
         <v>56</v>
       </c>
       <c r="B114">
         <v>20140619</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F114" t="b">
@@ -12426,20 +12439,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115">
       <c r="A115">
         <v>56</v>
       </c>
       <c r="B115">
         <v>20140619</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F115" t="b">
@@ -12486,20 +12499,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116">
       <c r="A116">
         <v>57</v>
       </c>
       <c r="B116">
         <v>20140618</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F116" t="b">
@@ -12515,7 +12528,7 @@
         <v>0.3436114654561595</v>
       </c>
       <c r="J116">
-        <v>1.9</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="K116">
         <v>8.3495845632686834</v>
@@ -12524,7 +12537,7 @@
         <v>0.3436114654561595</v>
       </c>
       <c r="M116">
-        <v>1.9</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="N116">
         <v>1.9</v>
@@ -12546,20 +12559,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117">
       <c r="A117">
         <v>57</v>
       </c>
       <c r="B117">
         <v>20140618</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F117" t="b">
@@ -12606,20 +12619,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118">
       <c r="A118">
         <v>57</v>
       </c>
       <c r="B118">
         <v>20140618</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F118" t="b">
@@ -12635,7 +12648,7 @@
         <v>0.35055734411785433</v>
       </c>
       <c r="J118">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="K118">
         <v>6.7895506905864043</v>
@@ -12644,7 +12657,7 @@
         <v>0.35799576250999465</v>
       </c>
       <c r="M118">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="N118">
         <v>1.6</v>
@@ -12666,20 +12679,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119">
       <c r="A119">
         <v>57</v>
       </c>
       <c r="B119">
         <v>20140620</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="20" t="s">
         <v>46</v>
       </c>
       <c r="F119" t="b">
@@ -12695,7 +12708,7 @@
         <v>0.7732045583790681</v>
       </c>
       <c r="J119">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="K119">
         <v>21.600328431824959</v>
@@ -12704,7 +12717,7 @@
         <v>0.8053389411357762</v>
       </c>
       <c r="M119">
-        <v>1.6</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="N119">
         <v>1.6</v>
@@ -12726,20 +12739,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120">
       <c r="A120">
         <v>57</v>
       </c>
       <c r="B120">
         <v>20140620</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="20" t="s">
         <v>46</v>
       </c>
       <c r="F120" t="b">
@@ -12786,20 +12799,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121">
       <c r="A121">
         <v>57</v>
       </c>
       <c r="B121">
         <v>20140620</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="20" t="s">
         <v>46</v>
       </c>
       <c r="F121" t="b">
@@ -12846,20 +12859,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122">
       <c r="A122">
         <v>58</v>
       </c>
       <c r="B122">
         <v>20140618</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F122" t="b">
@@ -12906,20 +12919,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123">
       <c r="A123">
         <v>58</v>
       </c>
       <c r="B123">
         <v>20140618</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F123" t="b">
@@ -12966,20 +12979,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124">
       <c r="A124">
         <v>58</v>
       </c>
       <c r="B124">
         <v>20140618</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F124" t="b">
@@ -12995,7 +13008,7 @@
         <v>0.77592816561297495</v>
       </c>
       <c r="J124">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="K124">
         <v>21.225897616818369</v>
@@ -13026,20 +13039,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125">
       <c r="A125">
         <v>58</v>
       </c>
       <c r="B125">
         <v>20140620</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F125" t="b">
@@ -13049,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="J125">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="K125">
         <v>3.7981752187933839</v>
@@ -13058,7 +13071,7 @@
         <v>0.22210194859810029</v>
       </c>
       <c r="M125">
-        <v>3.7</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="N125">
         <v>3.7</v>
@@ -13080,20 +13093,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126">
       <c r="A126">
         <v>58</v>
       </c>
       <c r="B126">
         <v>20140620</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F126" t="b">
@@ -13106,16 +13119,16 @@
         <v>-10.658386226289819</v>
       </c>
       <c r="I126">
-        <v>5.5631455172133637E-2</v>
+        <v>0.055631455172133637</v>
       </c>
       <c r="J126">
-        <v>0.3</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="K126">
         <v>-5.3758644820169303</v>
       </c>
       <c r="L126">
-        <v>1.51489295260361E-2</v>
+        <v>0.0151489295260361</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -13140,20 +13153,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127">
       <c r="A127">
         <v>69</v>
       </c>
       <c r="B127">
         <v>20141209</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F127" t="b">
@@ -13200,20 +13213,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128">
       <c r="A128">
         <v>69</v>
       </c>
       <c r="B128">
         <v>20141209</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F128" t="b">
@@ -13260,20 +13273,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129">
       <c r="A129">
         <v>69</v>
       </c>
       <c r="B129">
         <v>20141209</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F129" t="b">
@@ -13289,7 +13302,7 @@
         <v>0.65361989668255482</v>
       </c>
       <c r="J129">
-        <v>4.8</v>
+        <v>4.7999999999999998</v>
       </c>
       <c r="K129">
         <v>19.461977827251651</v>
@@ -13298,7 +13311,7 @@
         <v>0.65361989668255482</v>
       </c>
       <c r="M129">
-        <v>4.8</v>
+        <v>4.7999999999999998</v>
       </c>
       <c r="N129">
         <v>4.8</v>
@@ -13320,20 +13333,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130">
       <c r="A130">
         <v>69</v>
       </c>
       <c r="B130">
         <v>20141211</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="20" t="s">
         <v>50</v>
       </c>
       <c r="F130" t="b">
@@ -13349,7 +13362,7 @@
         <v>0.24340701553934893</v>
       </c>
       <c r="J130">
-        <v>0.6</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="K130">
         <v>-2.6455567908696067</v>
@@ -13358,7 +13371,7 @@
         <v>0.24340701553934893</v>
       </c>
       <c r="M130">
-        <v>0.6</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="N130">
         <v>0.6</v>
@@ -13380,20 +13393,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131">
       <c r="A131">
         <v>69</v>
       </c>
       <c r="B131">
         <v>20141211</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="20" t="s">
         <v>50</v>
       </c>
       <c r="F131" t="b">
@@ -13409,7 +13422,7 @@
         <v>0.21621156165635086</v>
       </c>
       <c r="J131">
-        <v>4.7</v>
+        <v>4.7000000000000002</v>
       </c>
       <c r="K131">
         <v>6.7639185770548034</v>
@@ -13418,7 +13431,7 @@
         <v>0.21621156165635086</v>
       </c>
       <c r="M131">
-        <v>4.7</v>
+        <v>4.7000000000000002</v>
       </c>
       <c r="N131">
         <v>4.7</v>
@@ -13440,20 +13453,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132">
       <c r="A132">
         <v>69</v>
       </c>
       <c r="B132">
         <v>20141211</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="20" t="s">
         <v>50</v>
       </c>
       <c r="F132" t="b">
@@ -13500,20 +13513,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133">
       <c r="A133">
         <v>71</v>
       </c>
       <c r="B133">
         <v>20141212</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F133" t="b">
@@ -13523,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="J133">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="K133">
         <v>0.5956812656270245</v>
@@ -13532,7 +13545,7 @@
         <v>0.20752047903055401</v>
       </c>
       <c r="M133">
-        <v>1.9</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="N133">
         <v>1.9</v>
@@ -13554,20 +13567,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134">
       <c r="A134">
         <v>71</v>
       </c>
       <c r="B134">
         <v>20141212</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F134" t="b">
@@ -13614,20 +13627,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135">
       <c r="A135">
         <v>71</v>
       </c>
       <c r="B135">
         <v>20141216</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F135" t="b">
@@ -13637,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="J135">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="K135">
         <v>-7.7303058714310842</v>
@@ -13668,20 +13681,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136">
       <c r="A136">
         <v>71</v>
       </c>
       <c r="B136">
         <v>20141216</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F136" t="b">
@@ -13697,7 +13710,7 @@
         <v>0.80749411213537736</v>
       </c>
       <c r="J136">
-        <v>4.2</v>
+        <v>4.2000000000000002</v>
       </c>
       <c r="K136">
         <v>-15.201930666281614</v>
@@ -13728,20 +13741,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137">
       <c r="A137">
         <v>72</v>
       </c>
       <c r="B137">
         <v>20141210</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="20" t="s">
         <v>53</v>
       </c>
       <c r="F137" t="b">
@@ -13788,20 +13801,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138">
       <c r="A138">
         <v>72</v>
       </c>
       <c r="B138">
         <v>20141210</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="20" t="s">
         <v>53</v>
       </c>
       <c r="F138" t="b">
@@ -13848,20 +13861,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139">
       <c r="A139">
         <v>72</v>
       </c>
       <c r="B139">
         <v>20141210</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="20" t="s">
         <v>53</v>
       </c>
       <c r="F139" t="b">
@@ -13886,7 +13899,7 @@
         <v>0.91453754007202492</v>
       </c>
       <c r="M139">
-        <v>2.6</v>
+        <v>2.6000000000000001</v>
       </c>
       <c r="N139">
         <v>2.6</v>
@@ -13908,20 +13921,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140">
       <c r="A140">
         <v>72</v>
       </c>
       <c r="B140">
         <v>20141212</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F140" t="b">
@@ -13937,7 +13950,7 @@
         <v>0.31567703639232764</v>
       </c>
       <c r="J140">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="K140">
         <v>5.681803001361649</v>
@@ -13946,7 +13959,7 @@
         <v>0.31567703639232764</v>
       </c>
       <c r="M140">
-        <v>0.9</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="N140">
         <v>0.9</v>
@@ -13968,20 +13981,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141">
       <c r="A141">
         <v>72</v>
       </c>
       <c r="B141">
         <v>20141212</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F141" t="b">
@@ -13997,7 +14010,7 @@
         <v>0.36866242110095798</v>
       </c>
       <c r="J141">
-        <v>2.8</v>
+        <v>2.7999999999999998</v>
       </c>
       <c r="K141">
         <v>8.5341328325014203</v>
@@ -14006,7 +14019,7 @@
         <v>0.36866242110095798</v>
       </c>
       <c r="M141">
-        <v>2.8</v>
+        <v>2.7999999999999998</v>
       </c>
       <c r="N141">
         <v>2.8</v>
@@ -14028,20 +14041,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142">
       <c r="A142">
         <v>72</v>
       </c>
       <c r="B142">
         <v>20141212</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F142" t="b">
@@ -14103,13 +14116,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="37" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="10.28515625" bestFit="true" customWidth="true"/>
+    <col min="3" max="22" width="23.140625" bestFit="true" customWidth="true"/>
+    <col min="23" max="37" width="12.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -14117,7 +14130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -14125,7 +14138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -14133,7 +14146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5">
       <c r="C5" s="4" t="s">
         <v>79</v>
       </c>
@@ -14144,7 +14157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6">
       <c r="C6" t="s">
         <v>77</v>
       </c>
@@ -14155,7 +14168,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -14211,7 +14224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -14273,7 +14286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9">
       <c r="A9">
         <v>29</v>
       </c>
@@ -14335,7 +14348,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10">
       <c r="A10">
         <v>29</v>
       </c>
@@ -14397,7 +14410,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11">
       <c r="A11">
         <v>32</v>
       </c>
@@ -14459,7 +14472,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12">
       <c r="A12">
         <v>34</v>
       </c>
@@ -14521,7 +14534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13">
       <c r="A13">
         <v>34</v>
       </c>
@@ -14583,7 +14596,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14">
       <c r="A14">
         <v>52</v>
       </c>
@@ -14645,7 +14658,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15">
       <c r="A15">
         <v>52</v>
       </c>
@@ -14707,7 +14720,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16">
       <c r="A16">
         <v>54</v>
       </c>
@@ -14769,7 +14782,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17">
       <c r="A17">
         <v>54</v>
       </c>
@@ -14831,7 +14844,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18">
       <c r="A18">
         <v>55</v>
       </c>
@@ -14893,7 +14906,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19">
       <c r="A19">
         <v>56</v>
       </c>
@@ -14955,7 +14968,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20">
       <c r="A20">
         <v>57</v>
       </c>
@@ -15017,7 +15030,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21">
       <c r="A21">
         <v>57</v>
       </c>
@@ -15079,7 +15092,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22">
       <c r="A22">
         <v>58</v>
       </c>
@@ -15141,7 +15154,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23">
       <c r="A23">
         <v>69</v>
       </c>
@@ -15203,7 +15216,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24">
       <c r="A24">
         <v>69</v>
       </c>
@@ -15265,7 +15278,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25">
       <c r="A25">
         <v>72</v>
       </c>
@@ -15327,7 +15340,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26">
       <c r="A26">
         <v>72</v>
       </c>
@@ -15399,16 +15412,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D314AD8E-1B96-4080-818C-5759D42CEC10}">
   <dimension ref="D6:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="P73" sqref="P73:Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:24">
+    <row r="6">
       <c r="G6" s="6" t="s">
         <v>57</v>
       </c>
@@ -15434,7 +15447,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="4:24">
+    <row r="7">
       <c r="G7" s="6" t="s">
         <v>3</v>
       </c>
@@ -15490,7 +15503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="4:24">
+    <row r="8">
       <c r="G8" s="7">
         <v>1</v>
       </c>
@@ -15546,15 +15559,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:24">
+    <row r="12">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="4:24">
+    <row r="13">
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="4:24">
+    <row r="14">
       <c r="D14" t="s">
         <v>82</v>
       </c>
@@ -15619,7 +15632,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="4:24">
+    <row r="15">
       <c r="D15" t="str">
         <f>CONCATENATE(E15,"channel",F15)</f>
         <v>29channel0</v>
@@ -15685,7 +15698,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="4:24">
+    <row r="16">
       <c r="D16" t="str">
         <f t="shared" ref="D16:D32" si="0">CONCATENATE(E16,"channel",F16)</f>
         <v>29channel1</v>
@@ -15751,7 +15764,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="17" spans="4:24">
+    <row r="17">
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>32channel1</v>
@@ -15817,7 +15830,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="18" spans="4:24">
+    <row r="18">
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>34channel0</v>
@@ -15883,7 +15896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="4:24">
+    <row r="19">
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>34channel1</v>
@@ -15949,7 +15962,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="4:24">
+    <row r="20">
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>52channel0</v>
@@ -16015,7 +16028,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="4:24">
+    <row r="21">
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>52channel1</v>
@@ -16081,7 +16094,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="22" spans="4:24">
+    <row r="22">
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>54channel0</v>
@@ -16147,7 +16160,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="4:24">
+    <row r="23">
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>54channel1</v>
@@ -16213,7 +16226,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="4:24">
+    <row r="24">
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>55channel1</v>
@@ -16279,7 +16292,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="25" spans="4:24">
+    <row r="25">
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>56channel0</v>
@@ -16345,7 +16358,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="26" spans="4:24">
+    <row r="26">
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>57channel0</v>
@@ -16411,7 +16424,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="27" spans="4:24">
+    <row r="27">
       <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>57channel1</v>
@@ -16477,7 +16490,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="28" spans="4:24">
+    <row r="28">
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>58channel0</v>
@@ -16543,7 +16556,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="4:24">
+    <row r="29">
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>69channel0</v>
@@ -16609,7 +16622,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="4:24">
+    <row r="30">
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>69channel1</v>
@@ -16675,7 +16688,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="31" spans="4:24">
+    <row r="31">
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>72channel0</v>
@@ -16741,7 +16754,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="32" spans="4:24">
+    <row r="32">
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>72channel1</v>
@@ -16807,12 +16820,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="7:17">
+    <row r="42">
       <c r="G42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="7:17">
+    <row r="43">
       <c r="G43" t="s">
         <v>104</v>
       </c>
@@ -16835,7 +16848,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="7:17">
+    <row r="44">
       <c r="M44" t="s">
         <v>107</v>
       </c>
@@ -16843,7 +16856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="7:17">
+    <row r="45">
       <c r="G45" t="s">
         <v>57</v>
       </c>
@@ -16875,7 +16888,7 @@
         <v>3.866108204206388E-2</v>
       </c>
     </row>
-    <row r="46" spans="7:17">
+    <row r="46">
       <c r="I46">
         <v>3</v>
       </c>
@@ -16901,7 +16914,7 @@
         <v>5.622715441537057E-6</v>
       </c>
     </row>
-    <row r="47" spans="7:17">
+    <row r="47">
       <c r="H47">
         <v>2</v>
       </c>
@@ -16930,7 +16943,7 @@
         <v>3.866108204206388E-2</v>
       </c>
     </row>
-    <row r="48" spans="7:17">
+    <row r="48">
       <c r="I48">
         <v>3</v>
       </c>
@@ -16956,7 +16969,7 @@
         <v>1.5935672743637453E-6</v>
       </c>
     </row>
-    <row r="49" spans="7:17">
+    <row r="49">
       <c r="H49">
         <v>3</v>
       </c>
@@ -16985,7 +16998,7 @@
         <v>5.622715441537057E-6</v>
       </c>
     </row>
-    <row r="50" spans="7:17">
+    <row r="50">
       <c r="I50">
         <v>2</v>
       </c>
@@ -17011,7 +17024,7 @@
         <v>1.5935672743637453E-6</v>
       </c>
     </row>
-    <row r="51" spans="7:17">
+    <row r="51">
       <c r="G51" t="s">
         <v>83</v>
       </c>
@@ -17043,7 +17056,7 @@
         <v>1.2751994496432375E-2</v>
       </c>
     </row>
-    <row r="52" spans="7:17">
+    <row r="52">
       <c r="I52">
         <v>3</v>
       </c>
@@ -17069,7 +17082,7 @@
         <v>7.2400547984436192E-6</v>
       </c>
     </row>
-    <row r="53" spans="7:17">
+    <row r="53">
       <c r="H53">
         <v>2</v>
       </c>
@@ -17098,7 +17111,7 @@
         <v>1.2751994496432375E-2</v>
       </c>
     </row>
-    <row r="54" spans="7:17">
+    <row r="54">
       <c r="I54">
         <v>3</v>
       </c>
@@ -17124,7 +17137,7 @@
         <v>3.973306249190049E-5</v>
       </c>
     </row>
-    <row r="55" spans="7:17">
+    <row r="55">
       <c r="H55">
         <v>3</v>
       </c>
@@ -17153,7 +17166,7 @@
         <v>7.2400547984436192E-6</v>
       </c>
     </row>
-    <row r="56" spans="7:17">
+    <row r="56">
       <c r="I56">
         <v>2</v>
       </c>
@@ -17179,7 +17192,7 @@
         <v>3.973306249190049E-5</v>
       </c>
     </row>
-    <row r="57" spans="7:17">
+    <row r="57">
       <c r="G57" t="s">
         <v>84</v>
       </c>
@@ -17211,7 +17224,7 @@
         <v>0.18221288571951955</v>
       </c>
     </row>
-    <row r="58" spans="7:17">
+    <row r="58">
       <c r="I58">
         <v>3</v>
       </c>
@@ -17237,7 +17250,7 @@
         <v>4.6953979912766139E-4</v>
       </c>
     </row>
-    <row r="59" spans="7:17">
+    <row r="59">
       <c r="H59">
         <v>2</v>
       </c>
@@ -17266,7 +17279,7 @@
         <v>0.18221288571951955</v>
       </c>
     </row>
-    <row r="60" spans="7:17">
+    <row r="60">
       <c r="I60">
         <v>3</v>
       </c>
@@ -17292,7 +17305,7 @@
         <v>7.8073569910326428E-4</v>
       </c>
     </row>
-    <row r="61" spans="7:17">
+    <row r="61">
       <c r="H61">
         <v>3</v>
       </c>
@@ -17321,7 +17334,7 @@
         <v>4.6953979912766139E-4</v>
       </c>
     </row>
-    <row r="62" spans="7:17">
+    <row r="62">
       <c r="I62">
         <v>2</v>
       </c>
@@ -17347,27 +17360,27 @@
         <v>7.8073569910326428E-4</v>
       </c>
     </row>
-    <row r="63" spans="7:17">
+    <row r="63">
       <c r="G63" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="7:17">
+    <row r="64">
       <c r="G64" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="7:17">
+    <row r="65">
       <c r="G65" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="7:17">
+    <row r="70">
       <c r="G70" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="7:17">
+    <row r="71">
       <c r="G71" t="s">
         <v>104</v>
       </c>
@@ -17393,7 +17406,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="7:17">
+    <row r="72">
       <c r="N72" t="s">
         <v>107</v>
       </c>
@@ -17401,7 +17414,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="7:17">
+    <row r="73">
       <c r="G73" t="s">
         <v>57</v>
       </c>
@@ -17436,7 +17449,7 @@
         <v>2.9866412908982946E-2</v>
       </c>
     </row>
-    <row r="74" spans="7:17">
+    <row r="74">
       <c r="I74">
         <v>2</v>
       </c>
@@ -17465,7 +17478,7 @@
         <v>2.9866412908982946E-2</v>
       </c>
     </row>
-    <row r="75" spans="7:17">
+    <row r="75">
       <c r="H75">
         <v>2</v>
       </c>
@@ -17497,7 +17510,7 @@
         <v>9.0834840966069023E-3</v>
       </c>
     </row>
-    <row r="76" spans="7:17">
+    <row r="76">
       <c r="I76">
         <v>2</v>
       </c>
@@ -17526,7 +17539,7 @@
         <v>9.0834840966069023E-3</v>
       </c>
     </row>
-    <row r="77" spans="7:17">
+    <row r="77">
       <c r="H77">
         <v>3</v>
       </c>
@@ -17558,7 +17571,7 @@
         <v>2.8062131730957908E-3</v>
       </c>
     </row>
-    <row r="78" spans="7:17">
+    <row r="78">
       <c r="I78">
         <v>2</v>
       </c>
@@ -17587,7 +17600,7 @@
         <v>2.8062131730957908E-3</v>
       </c>
     </row>
-    <row r="79" spans="7:17">
+    <row r="79">
       <c r="G79" t="s">
         <v>83</v>
       </c>
@@ -17622,7 +17635,7 @@
         <v>2.1752635691442701E-2</v>
       </c>
     </row>
-    <row r="80" spans="7:17">
+    <row r="80">
       <c r="I80">
         <v>2</v>
       </c>
@@ -17651,7 +17664,7 @@
         <v>2.1752635691442701E-2</v>
       </c>
     </row>
-    <row r="81" spans="7:17">
+    <row r="81">
       <c r="H81">
         <v>2</v>
       </c>
@@ -17683,7 +17696,7 @@
         <v>7.4149172141264683E-3</v>
       </c>
     </row>
-    <row r="82" spans="7:17">
+    <row r="82">
       <c r="I82">
         <v>2</v>
       </c>
@@ -17712,7 +17725,7 @@
         <v>7.4149172141264683E-3</v>
       </c>
     </row>
-    <row r="83" spans="7:17">
+    <row r="83">
       <c r="H83">
         <v>3</v>
       </c>
@@ -17744,7 +17757,7 @@
         <v>1.2345413355189898E-2</v>
       </c>
     </row>
-    <row r="84" spans="7:17">
+    <row r="84">
       <c r="I84">
         <v>2</v>
       </c>
@@ -17773,7 +17786,7 @@
         <v>1.2345413355189898E-2</v>
       </c>
     </row>
-    <row r="85" spans="7:17">
+    <row r="85">
       <c r="G85" t="s">
         <v>84</v>
       </c>
@@ -17808,7 +17821,7 @@
         <v>0.51353223822056149</v>
       </c>
     </row>
-    <row r="86" spans="7:17">
+    <row r="86">
       <c r="I86">
         <v>2</v>
       </c>
@@ -17837,7 +17850,7 @@
         <v>0.51353223822056149</v>
       </c>
     </row>
-    <row r="87" spans="7:17">
+    <row r="87">
       <c r="H87">
         <v>2</v>
       </c>
@@ -17869,7 +17882,7 @@
         <v>0.7946282572082527</v>
       </c>
     </row>
-    <row r="88" spans="7:17">
+    <row r="88">
       <c r="I88">
         <v>2</v>
       </c>
@@ -17898,7 +17911,7 @@
         <v>0.7946282572082527</v>
       </c>
     </row>
-    <row r="89" spans="7:17">
+    <row r="89">
       <c r="H89">
         <v>3</v>
       </c>
@@ -17930,7 +17943,7 @@
         <v>0.7377032059675277</v>
       </c>
     </row>
-    <row r="90" spans="7:17">
+    <row r="90">
       <c r="I90">
         <v>2</v>
       </c>
@@ -17959,17 +17972,17 @@
         <v>0.7377032059675277</v>
       </c>
     </row>
-    <row r="91" spans="7:17">
+    <row r="91">
       <c r="G91" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="7:17">
+    <row r="92">
       <c r="G92" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="7:17">
+    <row r="93">
       <c r="G93" t="s">
         <v>115</v>
       </c>
